--- a/data/trans_orig/P16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{515A5523-A1A2-4257-B532-B81DBFB74A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ACF8DFE-07D1-4404-8DC1-1612F96C4907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{210000BE-9C08-4327-B7F8-83F18CB523A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BC474B0-1B2A-4FB1-8A3F-521454E27D27}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -479,9 +479,6 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>0,71%</t>
   </si>
   <si>
@@ -494,15 +491,12 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,22%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -518,907 +512,943 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>99,78%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD68E85D-92EF-435D-BFFB-D3D9085EF402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B98C0F-F722-413D-B2AC-A783C1456C21}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3049,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9D80B0-0BA4-45ED-A361-F04092394B25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954BF414-E0AB-40E0-83DF-E89476BC6CC2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3179,7 +3209,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3188,13 +3218,13 @@
         <v>3033</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3203,13 +3233,13 @@
         <v>5870</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3254,13 @@
         <v>450268</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3239,13 +3269,13 @@
         <v>425373</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3254,13 +3284,13 @@
         <v>875641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3358,13 @@
         <v>10687</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3343,13 +3373,13 @@
         <v>19298</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3358,13 +3388,13 @@
         <v>29985</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3409,13 @@
         <v>675551</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -3394,13 +3424,13 @@
         <v>589916</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1209</v>
@@ -3409,13 +3439,13 @@
         <v>1265466</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3513,13 @@
         <v>21483</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3498,13 +3528,13 @@
         <v>56323</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3513,13 +3543,13 @@
         <v>77806</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3564,13 @@
         <v>658571</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>611</v>
@@ -3549,13 +3579,13 @@
         <v>651331</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -3564,13 +3594,13 @@
         <v>1309902</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,10 +3686,10 @@
         <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3668,13 +3698,13 @@
         <v>77934</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3719,13 @@
         <v>593784</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -3704,13 +3734,13 @@
         <v>556971</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1013</v>
@@ -3719,13 +3749,13 @@
         <v>1150755</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3823,13 @@
         <v>24805</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3808,13 +3838,13 @@
         <v>71123</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -3823,13 +3853,13 @@
         <v>95927</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3874,13 @@
         <v>402497</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -3859,13 +3889,13 @@
         <v>376677</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>706</v>
@@ -3874,13 +3904,13 @@
         <v>779175</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3978,13 @@
         <v>27188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -3963,13 +3993,13 @@
         <v>89728</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -3978,13 +4008,13 @@
         <v>116916</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4029,13 @@
         <v>529643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
         <v>606</v>
@@ -4124,7 +4154,7 @@
         <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -4133,13 +4163,13 @@
         <v>404438</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4184,13 @@
         <v>3310314</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>3006</v>
@@ -4169,13 +4199,13 @@
         <v>3250210</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>6112</v>
@@ -4184,13 +4214,13 @@
         <v>6560524</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59005639-922B-48AB-9737-1BF3CAA1FBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30DC01-756C-42DF-AA12-C74E8056D90A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4285,7 +4315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4392,13 +4422,13 @@
         <v>2034</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4407,13 +4437,13 @@
         <v>2880</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4425,10 +4455,10 @@
         <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,10 +4473,10 @@
         <v>417429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4458,13 +4488,13 @@
         <v>392875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>792</v>
@@ -4473,13 +4503,13 @@
         <v>810304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4577,13 @@
         <v>5904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4565,10 +4595,10 @@
         <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4577,13 +4607,13 @@
         <v>17717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4628,13 @@
         <v>584592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>567</v>
@@ -4616,10 +4646,10 @@
         <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4628,13 +4658,13 @@
         <v>1136323</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4732,13 @@
         <v>13954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4717,13 +4747,13 @@
         <v>27904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4735,10 +4765,10 @@
         <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4783,13 @@
         <v>655143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -4768,13 +4798,13 @@
         <v>633482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M11" s="7">
         <v>1260</v>
@@ -4783,13 +4813,13 @@
         <v>1288625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4887,13 @@
         <v>16295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4872,13 +4902,13 @@
         <v>55467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -4887,13 +4917,13 @@
         <v>71762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4938,13 @@
         <v>629753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>551</v>
@@ -4923,28 +4953,28 @@
         <v>593610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>1117</v>
       </c>
       <c r="N14" s="7">
-        <v>1223363</v>
+        <v>1223364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +5016,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5012,13 +5042,13 @@
         <v>19119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5027,13 +5057,13 @@
         <v>55933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5042,13 +5072,13 @@
         <v>75053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5093,13 @@
         <v>458799</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
@@ -5078,13 +5108,13 @@
         <v>440916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -5093,13 +5123,13 @@
         <v>899714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5197,13 @@
         <v>16900</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -5185,10 +5215,10 @@
         <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -5197,13 +5227,13 @@
         <v>114594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5248,13 @@
         <v>574428</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
         <v>573</v>
@@ -5236,10 +5266,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>1181</v>
@@ -5248,13 +5278,13 @@
         <v>1254665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5352,13 @@
         <v>74207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -5337,13 +5367,13 @@
         <v>251691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>300</v>
@@ -5352,13 +5382,13 @@
         <v>325898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5403,13 @@
         <v>3320143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H23" s="7">
         <v>3111</v>
@@ -5388,13 +5418,13 @@
         <v>3292851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M23" s="7">
         <v>6269</v>
@@ -5403,13 +5433,13 @@
         <v>6612994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11787DE-AF5D-465A-A13D-6AECB34696D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E69E67C-97C4-4B2D-B46F-225013A1FC5F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5504,7 +5534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5611,13 +5641,13 @@
         <v>1423</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5626,13 +5656,13 @@
         <v>9081</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5641,13 +5671,13 @@
         <v>10503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5692,13 @@
         <v>376256</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -5677,13 +5707,13 @@
         <v>345876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
@@ -5692,13 +5722,13 @@
         <v>722133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,10 +5799,10 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5784,10 +5814,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5796,13 +5826,13 @@
         <v>17924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,10 +5850,10 @@
         <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5835,10 +5865,10 @@
         <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5847,13 +5877,13 @@
         <v>909049</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5951,13 @@
         <v>14713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5936,13 +5966,13 @@
         <v>26597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>395</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5951,13 +5981,13 @@
         <v>41310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6002,13 @@
         <v>542539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>807</v>
@@ -5987,13 +6017,13 @@
         <v>556879</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>1341</v>
@@ -6002,13 +6032,13 @@
         <v>1099417</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6106,13 @@
         <v>36078</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -6091,13 +6121,13 @@
         <v>61228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -6106,13 +6136,13 @@
         <v>97306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6157,13 @@
         <v>687912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H14" s="7">
         <v>1048</v>
@@ -6142,28 +6172,28 @@
         <v>686033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
       </c>
       <c r="N14" s="7">
-        <v>1373946</v>
+        <v>1373945</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6235,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6231,13 +6261,13 @@
         <v>34951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -6246,13 +6276,13 @@
         <v>75910</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -6264,10 +6294,10 @@
         <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6312,13 @@
         <v>564135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
@@ -6297,13 +6327,13 @@
         <v>517666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>1501</v>
@@ -6312,13 +6342,13 @@
         <v>1081801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6416,13 @@
         <v>27994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -6401,13 +6431,13 @@
         <v>100234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
         <v>221</v>
@@ -6416,13 +6446,13 @@
         <v>128228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6467,13 @@
         <v>669240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H20" s="7">
         <v>1525</v>
@@ -6452,13 +6482,13 @@
         <v>924781</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M20" s="7">
         <v>2511</v>
@@ -6467,13 +6497,13 @@
         <v>1594021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6571,13 @@
         <v>117669</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>451</v>
@@ -6556,13 +6586,13 @@
         <v>288464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>580</v>
@@ -6571,13 +6601,13 @@
         <v>406133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,16 +6619,16 @@
         <v>3245</v>
       </c>
       <c r="D23" s="7">
-        <v>3265967</v>
+        <v>3265968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>462</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>463</v>
       </c>
       <c r="H23" s="7">
         <v>4908</v>
@@ -6607,13 +6637,13 @@
         <v>3514398</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>254</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>8153</v>
@@ -6622,13 +6652,13 @@
         <v>6780365</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,7 +6670,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ACF8DFE-07D1-4404-8DC1-1612F96C4907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A7BD11-21A2-44F2-AD81-35B33C9F7E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BC474B0-1B2A-4FB1-8A3F-521454E27D27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1077D841-7C34-41CD-A9C4-A8C58B275F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,1318 +80,1318 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -1860,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B98C0F-F722-413D-B2AC-A783C1456C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3861C9C-B0E0-40EB-9421-CD9B2B1681E4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2324,10 +2324,10 @@
         <v>39228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2375,13 +2375,13 @@
         <v>1288166</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +2992,7 @@
         <v>6228</v>
       </c>
       <c r="N23" s="7">
-        <v>6366441</v>
+        <v>6366442</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -3043,7 +3043,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3079,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954BF414-E0AB-40E0-83DF-E89476BC6CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD450C7-0B22-4ED1-A9EA-6FE38E3F54F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,7 +3209,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3233,10 +3233,10 @@
         <v>5870</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>150</v>
@@ -3257,7 +3257,7 @@
         <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>152</v>
@@ -3284,13 +3284,13 @@
         <v>875641</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,10 +3686,10 @@
         <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3698,13 +3698,13 @@
         <v>77934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3719,13 @@
         <v>593784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -3734,13 +3734,13 @@
         <v>556971</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1013</v>
@@ -3749,13 +3749,13 @@
         <v>1150755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3823,13 @@
         <v>24805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3838,13 +3838,13 @@
         <v>71123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -3853,13 +3853,13 @@
         <v>95927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3874,13 @@
         <v>402497</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -3889,13 +3889,13 @@
         <v>376677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>706</v>
@@ -3904,13 +3904,13 @@
         <v>779175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3978,13 @@
         <v>27188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -3993,13 +3993,13 @@
         <v>89728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -4008,13 +4008,13 @@
         <v>116916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4029,13 @@
         <v>529643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>606</v>
@@ -4044,13 +4044,13 @@
         <v>649941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>1084</v>
@@ -4059,13 +4059,13 @@
         <v>1179584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4133,13 @@
         <v>107832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>281</v>
@@ -4148,13 +4148,13 @@
         <v>296605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -4163,13 +4163,13 @@
         <v>404438</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4184,13 @@
         <v>3310314</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>3006</v>
@@ -4199,13 +4199,13 @@
         <v>3250210</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>6112</v>
@@ -4214,13 +4214,13 @@
         <v>6560524</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30DC01-756C-42DF-AA12-C74E8056D90A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3AD32E-36E5-4E2E-A75E-89161C4BD28D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4315,7 +4315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4422,13 +4422,13 @@
         <v>2034</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4437,13 +4437,13 @@
         <v>2880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4452,13 +4452,13 @@
         <v>4914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4473,10 @@
         <v>417429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4488,10 +4488,10 @@
         <v>392875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>155</v>
@@ -4503,13 +4503,13 @@
         <v>810304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,10 +4580,10 @@
         <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4592,7 +4592,7 @@
         <v>11813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>276</v>
@@ -4607,13 +4607,13 @@
         <v>17717</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4628,13 @@
         <v>584592</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>567</v>
@@ -4643,13 +4643,13 @@
         <v>551731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4658,13 +4658,13 @@
         <v>1136323</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4732,13 @@
         <v>13954</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4747,13 +4747,13 @@
         <v>27904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4762,13 +4762,13 @@
         <v>41858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4783,13 @@
         <v>655143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -4798,13 +4798,13 @@
         <v>633482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>1260</v>
@@ -4813,13 +4813,13 @@
         <v>1288625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4887,13 @@
         <v>16295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4902,13 +4902,13 @@
         <v>55467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -4917,13 +4917,13 @@
         <v>71762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4938,13 @@
         <v>629753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
         <v>551</v>
@@ -4953,28 +4953,28 @@
         <v>593610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>1117</v>
       </c>
       <c r="N14" s="7">
-        <v>1223364</v>
+        <v>1223363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,7 +5016,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5042,13 +5042,13 @@
         <v>19119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5057,13 +5057,13 @@
         <v>55933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5072,13 +5072,13 @@
         <v>75053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5093,13 @@
         <v>458799</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
@@ -5108,13 +5108,13 @@
         <v>440916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -5123,13 +5123,13 @@
         <v>899714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5197,13 @@
         <v>16900</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -5233,7 +5233,7 @@
         <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5248,13 @@
         <v>574428</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>573</v>
@@ -5266,10 +5266,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>1181</v>
@@ -5278,13 +5278,13 @@
         <v>1254665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5352,13 @@
         <v>74207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>34</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -5367,13 +5367,13 @@
         <v>251691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>300</v>
@@ -5382,13 +5382,13 @@
         <v>325898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5403,13 @@
         <v>3320143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3111</v>
@@ -5418,7 +5418,7 @@
         <v>3292851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>358</v>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E69E67C-97C4-4B2D-B46F-225013A1FC5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F58BA66-3491-47C0-A924-554870D8255A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5656,13 +5656,13 @@
         <v>9081</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5671,10 +5671,10 @@
         <v>10503</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>194</v>
@@ -5692,10 +5692,10 @@
         <v>376256</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5707,13 +5707,13 @@
         <v>345876</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
@@ -5722,13 +5722,13 @@
         <v>722133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5796,13 @@
         <v>2511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5814,10 +5814,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5826,13 +5826,13 @@
         <v>17924</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5847,13 @@
         <v>425885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5865,10 +5865,10 @@
         <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5877,13 +5877,13 @@
         <v>909049</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5951,13 @@
         <v>14713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5966,13 +5966,13 @@
         <v>26597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5981,13 +5981,13 @@
         <v>41310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6002,13 @@
         <v>542539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>807</v>
@@ -6017,13 +6017,13 @@
         <v>556879</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>1341</v>
@@ -6032,13 +6032,13 @@
         <v>1099417</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6106,13 @@
         <v>36078</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -6121,13 +6121,13 @@
         <v>61228</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -6136,13 +6136,13 @@
         <v>97306</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6157,13 @@
         <v>687912</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H14" s="7">
         <v>1048</v>
@@ -6172,13 +6172,13 @@
         <v>686033</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
@@ -6187,13 +6187,13 @@
         <v>1373945</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6261,13 @@
         <v>34951</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -6276,13 +6276,13 @@
         <v>75910</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -6294,10 +6294,10 @@
         <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6312,13 @@
         <v>564135</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
@@ -6342,7 +6342,7 @@
         <v>1081801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>436</v>
@@ -6416,7 +6416,7 @@
         <v>27994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>438</v>
@@ -6431,13 +6431,13 @@
         <v>100234</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M19" s="7">
         <v>221</v>
@@ -6446,13 +6446,13 @@
         <v>128228</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,7 +6467,7 @@
         <v>669240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>445</v>
@@ -6482,13 +6482,13 @@
         <v>924781</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M20" s="7">
         <v>2511</v>
@@ -6497,10 +6497,10 @@
         <v>1594021</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>451</v>

--- a/data/trans_orig/P16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A7BD11-21A2-44F2-AD81-35B33C9F7E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D50AEE-F018-4500-9812-0052BC2BFE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1077D841-7C34-41CD-A9C4-A8C58B275F3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D942803-9C71-4B16-98BF-26480E22516A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="460">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,19%</t>
@@ -80,1375 +80,1345 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3861C9C-B0E0-40EB-9421-CD9B2B1681E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF81B8A0-59CE-464A-A206-658A6296695D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2324,10 +2294,10 @@
         <v>39228</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2375,13 +2345,13 @@
         <v>1288166</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +2962,7 @@
         <v>6228</v>
       </c>
       <c r="N23" s="7">
-        <v>6366442</v>
+        <v>6366441</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -3043,7 +3013,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3079,7 +3049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD450C7-0B22-4ED1-A9EA-6FE38E3F54F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837B13A8-B743-460E-A622-5742AF71FB8E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,7 +3179,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3218,13 +3188,13 @@
         <v>3033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3233,13 +3203,13 @@
         <v>5870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3224,13 @@
         <v>450268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3269,13 +3239,13 @@
         <v>425373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3284,13 +3254,13 @@
         <v>875641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3328,13 @@
         <v>10687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3373,13 +3343,13 @@
         <v>19298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3388,13 +3358,13 @@
         <v>29985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3379,13 @@
         <v>675551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -3424,13 +3394,13 @@
         <v>589916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1209</v>
@@ -3439,13 +3409,13 @@
         <v>1265466</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3483,13 @@
         <v>21483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3528,13 +3498,13 @@
         <v>56323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3543,13 +3513,13 @@
         <v>77806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3534,13 @@
         <v>658571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>611</v>
@@ -3579,13 +3549,13 @@
         <v>651331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -3594,13 +3564,13 @@
         <v>1309902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3796,7 @@
         <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>213</v>
@@ -3880,7 +3850,7 @@
         <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -3978,13 +3948,13 @@
         <v>27188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -3993,13 +3963,13 @@
         <v>89728</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -4008,13 +3978,13 @@
         <v>116916</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +3999,13 @@
         <v>529643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>606</v>
@@ -4044,13 +4014,13 @@
         <v>649941</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>1084</v>
@@ -4059,13 +4029,13 @@
         <v>1179584</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4103,13 @@
         <v>107832</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>281</v>
@@ -4148,13 +4118,13 @@
         <v>296605</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -4163,13 +4133,13 @@
         <v>404438</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4154,13 @@
         <v>3310314</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>3006</v>
@@ -4199,13 +4169,13 @@
         <v>3250210</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>6112</v>
@@ -4214,13 +4184,13 @@
         <v>6560524</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +4268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3AD32E-36E5-4E2E-A75E-89161C4BD28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2F8D1-399A-4CFC-90EC-DCD2D8C7FC32}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4315,7 +4285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4422,13 +4392,13 @@
         <v>2034</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4437,13 +4407,13 @@
         <v>2880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4452,13 +4422,13 @@
         <v>4914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4443,10 @@
         <v>417429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4488,13 +4458,13 @@
         <v>392875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>792</v>
@@ -4503,13 +4473,13 @@
         <v>810304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4547,13 @@
         <v>5904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4592,13 +4562,13 @@
         <v>11813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4607,13 +4577,13 @@
         <v>17717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4598,13 @@
         <v>584592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>567</v>
@@ -4643,13 +4613,13 @@
         <v>551731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4658,13 +4628,13 @@
         <v>1136323</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4702,13 @@
         <v>13954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4747,13 +4717,13 @@
         <v>27904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4762,13 +4732,13 @@
         <v>41858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4753,13 @@
         <v>655143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -4798,13 +4768,13 @@
         <v>633482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>1260</v>
@@ -4813,13 +4783,13 @@
         <v>1288625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4857,13 @@
         <v>16295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4902,13 +4872,13 @@
         <v>55467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -4917,13 +4887,13 @@
         <v>71762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4908,13 @@
         <v>629753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>551</v>
@@ -4953,13 +4923,13 @@
         <v>593610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>1117</v>
@@ -4968,13 +4938,13 @@
         <v>1223363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5012,13 @@
         <v>19119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5057,13 +5027,13 @@
         <v>55933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5072,13 +5042,13 @@
         <v>75053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5063,13 @@
         <v>458799</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
@@ -5108,13 +5078,13 @@
         <v>440916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -5123,13 +5093,13 @@
         <v>899714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5167,13 @@
         <v>16900</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -5215,10 +5185,10 @@
         <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -5227,13 +5197,13 @@
         <v>114594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5218,13 @@
         <v>574428</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>170</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>573</v>
@@ -5266,10 +5236,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>1181</v>
@@ -5278,13 +5248,13 @@
         <v>1254665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5322,13 @@
         <v>74207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -5367,13 +5337,13 @@
         <v>251691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>300</v>
@@ -5382,13 +5352,13 @@
         <v>325898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5373,13 @@
         <v>3320143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="H23" s="7">
         <v>3111</v>
@@ -5418,13 +5388,13 @@
         <v>3292851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M23" s="7">
         <v>6269</v>
@@ -5433,13 +5403,13 @@
         <v>6612994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,7 +5487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F58BA66-3491-47C0-A924-554870D8255A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAB0BA-B283-4F12-BC93-6720F640AEBB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5534,7 +5504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5641,13 +5611,13 @@
         <v>1423</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5656,13 +5626,13 @@
         <v>9081</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5671,13 +5641,13 @@
         <v>10503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5662,13 @@
         <v>376256</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -5707,13 +5677,13 @@
         <v>345876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
@@ -5722,13 +5692,13 @@
         <v>722133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5766,13 @@
         <v>2511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5814,10 +5784,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5826,13 +5796,13 @@
         <v>17924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5817,13 @@
         <v>425885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5865,10 +5835,10 @@
         <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5877,13 +5847,13 @@
         <v>909049</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5921,13 @@
         <v>14713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5966,13 +5936,13 @@
         <v>26597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5981,13 +5951,13 @@
         <v>41310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5972,13 @@
         <v>542539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="H11" s="7">
         <v>807</v>
@@ -6017,13 +5987,13 @@
         <v>556879</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>1341</v>
@@ -6032,13 +6002,13 @@
         <v>1099417</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6076,13 @@
         <v>36078</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -6121,13 +6091,13 @@
         <v>61228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -6136,13 +6106,13 @@
         <v>97306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6127,13 @@
         <v>687912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7">
         <v>1048</v>
@@ -6172,28 +6142,28 @@
         <v>686033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
       </c>
       <c r="N14" s="7">
-        <v>1373945</v>
+        <v>1373946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,7 +6205,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6261,13 +6231,13 @@
         <v>34951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>423</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -6276,13 +6246,13 @@
         <v>75910</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -6294,10 +6264,10 @@
         <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6282,13 @@
         <v>564135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>432</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
@@ -6327,13 +6297,13 @@
         <v>517666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M17" s="7">
         <v>1501</v>
@@ -6345,10 +6315,10 @@
         <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6386,13 @@
         <v>27994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>432</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -6431,13 +6401,13 @@
         <v>100234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
         <v>221</v>
@@ -6446,13 +6416,13 @@
         <v>128228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6437,13 @@
         <v>669240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>1525</v>
@@ -6482,13 +6452,13 @@
         <v>924781</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>2511</v>
@@ -6497,13 +6467,13 @@
         <v>1594021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6541,13 @@
         <v>117669</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>453</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>451</v>
@@ -6586,13 +6556,13 @@
         <v>288464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>457</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>580</v>
@@ -6601,13 +6571,13 @@
         <v>406133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,16 +6589,16 @@
         <v>3245</v>
       </c>
       <c r="D23" s="7">
-        <v>3265968</v>
+        <v>3265967</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>462</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>463</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>4908</v>
@@ -6637,13 +6607,13 @@
         <v>3514398</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>465</v>
+        <v>254</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>8153</v>
@@ -6652,13 +6622,13 @@
         <v>6780365</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,7 +6640,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D50AEE-F018-4500-9812-0052BC2BFE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E170BB-508C-4442-8799-A46AC2CB131E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D942803-9C71-4B16-98BF-26480E22516A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6415648D-211B-46EF-989B-D0FB239067AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="531">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -191,7 +191,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -242,7 +242,7 @@
     <t>97,9%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -299,7 +299,7 @@
     <t>95,7%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,6%</t>
@@ -356,61 +356,118 @@
     <t>93,6%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>2,14%</t>
@@ -428,9 +485,6 @@
     <t>5,64%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
     <t>4,33%</t>
   </si>
   <si>
@@ -452,9 +506,6 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
     <t>94,36%</t>
   </si>
   <si>
@@ -725,700 +776,862 @@
     <t>91,06%</t>
   </si>
   <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +2043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF81B8A0-59CE-464A-A206-658A6296695D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8A9E7F-DBCB-41BE-98AB-2CBF158EB72D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2723,10 +2936,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>20890</v>
+        <v>10989</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2738,10 +2951,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>68061</v>
+        <v>35039</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2753,10 +2966,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N19" s="7">
-        <v>88950</v>
+        <v>46028</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2774,10 +2987,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>501</v>
+        <v>291</v>
       </c>
       <c r="D20" s="7">
-        <v>481576</v>
+        <v>281594</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2789,10 +3002,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>596</v>
+        <v>334</v>
       </c>
       <c r="I20" s="7">
-        <v>608781</v>
+        <v>307895</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2804,10 +3017,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1097</v>
+        <v>625</v>
       </c>
       <c r="N20" s="7">
-        <v>1090358</v>
+        <v>589489</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2825,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2840,10 +3053,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2855,10 +3068,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2872,55 +3085,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>70100</v>
+        <v>9901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>218181</v>
+        <v>33021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>288281</v>
+        <v>42922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,49 +3142,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3142</v>
+        <v>210</v>
       </c>
       <c r="D23" s="7">
-        <v>3205425</v>
+        <v>199982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>3086</v>
+        <v>262</v>
       </c>
       <c r="I23" s="7">
-        <v>3161017</v>
+        <v>300887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6228</v>
+        <v>472</v>
       </c>
       <c r="N23" s="7">
-        <v>6366441</v>
+        <v>500869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,63 +3193,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>71</v>
+      </c>
+      <c r="D25" s="7">
+        <v>70100</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>211</v>
+      </c>
+      <c r="I25" s="7">
+        <v>218181</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="7">
+        <v>282</v>
+      </c>
+      <c r="N25" s="7">
+        <v>288281</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3142</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3205425</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3086</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3161016</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6228</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6366441</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3049,8 +3418,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837B13A8-B743-460E-A622-5742AF71FB8E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B62E3D5-6769-4C71-87C9-E8BF23A8F15B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3066,7 +3435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3173,13 +3542,13 @@
         <v>2837</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3188,13 +3557,13 @@
         <v>3033</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3203,10 +3572,10 @@
         <v>5870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>39</v>
@@ -3224,13 +3593,13 @@
         <v>450268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3239,13 +3608,13 @@
         <v>425373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3254,13 +3623,13 @@
         <v>875641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3697,13 @@
         <v>10687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3343,13 +3712,13 @@
         <v>19298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3358,13 +3727,13 @@
         <v>29985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3748,13 @@
         <v>675551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>552</v>
@@ -3394,13 +3763,13 @@
         <v>589916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>1209</v>
@@ -3409,13 +3778,13 @@
         <v>1265466</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3852,13 @@
         <v>21483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3498,13 +3867,13 @@
         <v>56323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3513,13 +3882,13 @@
         <v>77806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3903,13 @@
         <v>658571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>611</v>
@@ -3549,13 +3918,13 @@
         <v>651331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -3564,13 +3933,13 @@
         <v>1309902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +4007,13 @@
         <v>20833</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -3653,13 +4022,13 @@
         <v>57101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -3668,13 +4037,13 @@
         <v>77934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +4058,13 @@
         <v>593784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -3704,13 +4073,13 @@
         <v>556971</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1013</v>
@@ -3719,13 +4088,13 @@
         <v>1150755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +4162,13 @@
         <v>24805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3808,13 +4177,13 @@
         <v>71123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -3823,13 +4192,13 @@
         <v>95927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +4213,13 @@
         <v>402497</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -3859,13 +4228,13 @@
         <v>376677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>706</v>
@@ -3874,13 +4243,13 @@
         <v>779175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +4311,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>27188</v>
+        <v>13362</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>89728</v>
+        <v>46122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N19" s="7">
-        <v>116916</v>
+        <v>59484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,49 +4362,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>478</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7">
-        <v>529643</v>
+        <v>294433</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
-        <v>606</v>
+        <v>298</v>
       </c>
       <c r="I20" s="7">
-        <v>649941</v>
+        <v>307874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>1084</v>
+        <v>567</v>
       </c>
       <c r="N20" s="7">
-        <v>1179584</v>
+        <v>602307</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,10 +4413,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556831</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4059,10 +4428,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>739669</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4074,10 +4443,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1296500</v>
+        <v>661791</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4091,55 +4460,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>107832</v>
+        <v>13826</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="I22" s="7">
-        <v>296605</v>
+        <v>43605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
-        <v>376</v>
+        <v>51</v>
       </c>
       <c r="N22" s="7">
-        <v>404438</v>
+        <v>57432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,49 +4517,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3106</v>
+        <v>209</v>
       </c>
       <c r="D23" s="7">
-        <v>3310314</v>
+        <v>235210</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>3006</v>
+        <v>308</v>
       </c>
       <c r="I23" s="7">
-        <v>3250210</v>
+        <v>342068</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
-        <v>6112</v>
+        <v>517</v>
       </c>
       <c r="N23" s="7">
-        <v>6560524</v>
+        <v>577277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,63 +4568,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385673</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>634709</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>107832</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>281</v>
+      </c>
+      <c r="I25" s="7">
+        <v>296605</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M25" s="7">
+        <v>376</v>
+      </c>
+      <c r="N25" s="7">
+        <v>404437</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3106</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3310315</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3006</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3250210</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6112</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6560524</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3201</v>
       </c>
-      <c r="D24" s="7">
-        <v>3418146</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3418147</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3287</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3546815</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6488</v>
       </c>
-      <c r="N24" s="7">
-        <v>6964962</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6964961</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4268,8 +4793,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE2F8D1-399A-4CFC-90EC-DCD2D8C7FC32}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781BC241-637D-40F7-AF18-7CD859D8D7DD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4285,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4392,7 +4917,7 @@
         <v>2034</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -4407,13 +4932,13 @@
         <v>2880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4422,13 +4947,13 @@
         <v>4914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,7 +4968,7 @@
         <v>417429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
@@ -4458,13 +4983,13 @@
         <v>392875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>792</v>
@@ -4473,13 +4998,13 @@
         <v>810304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +5072,13 @@
         <v>5904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4565,10 +5090,10 @@
         <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4577,13 +5102,13 @@
         <v>17717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +5123,13 @@
         <v>584592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>567</v>
@@ -4616,10 +5141,10 @@
         <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4628,13 +5153,13 @@
         <v>1136323</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +5227,13 @@
         <v>13954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4717,13 +5242,13 @@
         <v>27904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4732,13 +5257,13 @@
         <v>41858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +5278,13 @@
         <v>655143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -4768,13 +5293,13 @@
         <v>633482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>1260</v>
@@ -4783,13 +5308,13 @@
         <v>1288625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +5382,13 @@
         <v>16295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4872,13 +5397,13 @@
         <v>55467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -4887,13 +5412,13 @@
         <v>71762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +5433,13 @@
         <v>629753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>551</v>
@@ -4923,13 +5448,13 @@
         <v>593610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>1117</v>
@@ -4938,13 +5463,13 @@
         <v>1223363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5537,13 @@
         <v>19119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5027,13 +5552,13 @@
         <v>55933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5042,13 +5567,13 @@
         <v>75053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5588,13 @@
         <v>458799</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
@@ -5078,13 +5603,13 @@
         <v>440916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>791</v>
@@ -5093,13 +5618,13 @@
         <v>899714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,49 +5686,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>16900</v>
+        <v>6627</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>97694</v>
+        <v>50515</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>114594</v>
+        <v>57142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,49 +5737,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>608</v>
+        <v>318</v>
       </c>
       <c r="D20" s="7">
-        <v>574428</v>
+        <v>327703</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
-        <v>573</v>
+        <v>308</v>
       </c>
       <c r="I20" s="7">
-        <v>680237</v>
+        <v>327247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
-        <v>1181</v>
+        <v>626</v>
       </c>
       <c r="N20" s="7">
-        <v>1254665</v>
+        <v>654950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,10 +5788,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5278,10 +5803,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5293,10 +5818,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5310,55 +5835,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>74207</v>
+        <v>10273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>251691</v>
+        <v>47178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>325898</v>
+        <v>57451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,49 +5892,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3158</v>
+        <v>290</v>
       </c>
       <c r="D23" s="7">
-        <v>3320143</v>
+        <v>246725</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
-        <v>3111</v>
+        <v>265</v>
       </c>
       <c r="I23" s="7">
-        <v>3292851</v>
+        <v>352991</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M23" s="7">
-        <v>6269</v>
+        <v>555</v>
       </c>
       <c r="N23" s="7">
-        <v>6612994</v>
+        <v>599716</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,63 +5943,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7">
+        <v>74207</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" s="7">
+        <v>227</v>
+      </c>
+      <c r="I25" s="7">
+        <v>251691</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M25" s="7">
+        <v>300</v>
+      </c>
+      <c r="N25" s="7">
+        <v>325898</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3158</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3320143</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3111</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3292851</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6269</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6612994</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5487,8 +6168,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAB0BA-B283-4F12-BC93-6720F640AEBB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E12234-C322-452E-9548-5FD37F9574F1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5504,7 +6185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5608,46 +6289,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1423</v>
+        <v>1503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>9081</v>
+        <v>7229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>360</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>10503</v>
+        <v>8732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,46 +6340,46 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>376256</v>
+        <v>398484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>345876</v>
+        <v>305971</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>368</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>373</v>
       </c>
       <c r="N5" s="7">
-        <v>722133</v>
+        <v>704455</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,7 +6391,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5725,7 +6406,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5740,7 +6421,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5763,46 +6444,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2511</v>
+        <v>2287</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>425</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>15413</v>
+        <v>13787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>426</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>427</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>17924</v>
+        <v>16074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,46 +6495,46 @@
         <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>425885</v>
+        <v>421260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
       </c>
       <c r="I8" s="7">
-        <v>483164</v>
+        <v>497717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>434</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
       </c>
       <c r="N8" s="7">
-        <v>909049</v>
+        <v>918977</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,7 +6546,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5880,7 +6561,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5895,7 +6576,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5918,46 +6599,46 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>14713</v>
+        <v>14218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>26597</v>
+        <v>24693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>441</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>41310</v>
+        <v>38911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,46 +6650,46 @@
         <v>534</v>
       </c>
       <c r="D11" s="7">
-        <v>542539</v>
+        <v>522120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="H11" s="7">
         <v>807</v>
       </c>
       <c r="I11" s="7">
-        <v>556879</v>
+        <v>517775</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="M11" s="7">
         <v>1341</v>
       </c>
       <c r="N11" s="7">
-        <v>1099417</v>
+        <v>1039895</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6701,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6035,7 +6716,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6050,7 +6731,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6073,46 +6754,46 @@
         <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>36078</v>
+        <v>34881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>61228</v>
+        <v>56444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>97306</v>
+        <v>91324</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,46 +6805,46 @@
         <v>632</v>
       </c>
       <c r="D14" s="7">
-        <v>687912</v>
+        <v>852905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>1048</v>
       </c>
       <c r="I14" s="7">
-        <v>686033</v>
+        <v>656437</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
       </c>
       <c r="N14" s="7">
-        <v>1373946</v>
+        <v>1509343</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6856,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6190,7 +6871,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6205,7 +6886,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6228,46 +6909,46 @@
         <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>34951</v>
+        <v>32795</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>472</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>75910</v>
+        <v>69072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
       </c>
       <c r="N16" s="7">
-        <v>110861</v>
+        <v>101867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,46 +6960,46 @@
         <v>624</v>
       </c>
       <c r="D17" s="7">
-        <v>564135</v>
+        <v>527442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
       </c>
       <c r="I17" s="7">
-        <v>517666</v>
+        <v>475815</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>1501</v>
       </c>
       <c r="N17" s="7">
-        <v>1081801</v>
+        <v>1003257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,7 +7011,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6345,7 +7026,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6360,7 +7041,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6380,49 +7061,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>27994</v>
+        <v>8778</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="H19" s="7">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7">
-        <v>100234</v>
+        <v>48197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="M19" s="7">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="N19" s="7">
-        <v>128228</v>
+        <v>56975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,49 +7112,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>986</v>
+        <v>557</v>
       </c>
       <c r="D20" s="7">
-        <v>669240</v>
+        <v>359387</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
-        <v>1525</v>
+        <v>733</v>
       </c>
       <c r="I20" s="7">
-        <v>924781</v>
+        <v>560171</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="M20" s="7">
-        <v>2511</v>
+        <v>1290</v>
       </c>
       <c r="N20" s="7">
-        <v>1594021</v>
+        <v>919558</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,10 +7163,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697234</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6497,10 +7178,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6512,10 +7193,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722249</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6529,55 +7210,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>117669</v>
+        <v>17294</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
-        <v>451</v>
+        <v>86</v>
       </c>
       <c r="I22" s="7">
-        <v>288464</v>
+        <v>42775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
-        <v>580</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
-        <v>406133</v>
+        <v>60069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,49 +7267,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3245</v>
+        <v>429</v>
       </c>
       <c r="D23" s="7">
-        <v>3265967</v>
+        <v>264975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>343</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>513</v>
       </c>
       <c r="H23" s="7">
-        <v>4908</v>
+        <v>792</v>
       </c>
       <c r="I23" s="7">
-        <v>3514398</v>
+        <v>381619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>254</v>
+        <v>515</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>456</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
-        <v>8153</v>
+        <v>1221</v>
       </c>
       <c r="N23" s="7">
-        <v>6780365</v>
+        <v>646594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,63 +7318,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706663</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>129</v>
+      </c>
+      <c r="D25" s="7">
+        <v>111757</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>451</v>
+      </c>
+      <c r="I25" s="7">
+        <v>262196</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M25" s="7">
+        <v>580</v>
+      </c>
+      <c r="N25" s="7">
+        <v>373953</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3245</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3346573</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4908</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3395506</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8153</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6742079</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5359</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657702</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7116032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
